--- a/results/TitanicHakankBinary/1/evaluation.xlsx
+++ b/results/TitanicHakankBinary/1/evaluation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>BIO</t>
   </si>
@@ -46,19 +46,34 @@
     <t>TRAIN</t>
   </si>
   <si>
-    <t>0.779291553133515</t>
+    <t>0.7811080835603996</t>
+  </si>
+  <si>
+    <t>0.8138056312443234</t>
+  </si>
+  <si>
+    <t>0.046511627906976744</t>
   </si>
   <si>
     <t>1.0</t>
   </si>
   <si>
-    <t>[]</t>
+    <t>[547, 276, 1097, 1113, 1185, 500, 198, 560, 1150, 1078, 564, 203, 1146, 572, 549, 283, 1220, 281, 1110, 1109, 1149, 544, 1288, 264, 239, 261, 257, 1080, 179, 1099, 1232, 1089, 217, 527, 293, 609, 260, 573, 1214, 1122, 1112, 1094, 534, 246, 1213, 237, 1170, 266, 577, 1176, 535, 1210, 505, 1086, 1123, 1138, 235, 324, 1286, 1305, 214, 556, 1115, 1313, 565, 1203, 271, 184, 279, 1100, 310, 312, 1230, 1178, 175, 294, 1111, 234, 196, 211, 562, 248, 301, 1129, 190, 288, 317, 531, 1200, 542, 302, 263, 1175, 1160, 499, 218, 1072, 1198, 1107, 1306, 222, 1209, 538, 290, 209, 200, 241, 579, 1294, 1307, 513, 1124, 278, 1312, 1166, 205, 602, 193, 1093, 553, 533, 526, 1295, 219, 578, 1190, 255, 1201, 1195, 557, 202, 1151, 1229, 1074, 1165, 1299, 585, 1130, 525, 1310, 307, 1205, 1298, 208, 215, 537, 524, 178, 187, 536, 1311, 1225, 292, 243, 199, 206, 603, 584, 1187, 509, 299, 501, 507, 575, 1087, 1134, 558, 1104, 1236, 240, 1145, 1147, 195, 519, 1131, 583, 305, 287, 571, 212, 566, 1105, 213, 256, 177, 599, 306, 582, 197, 1090, 245, 265, 1301, 1208, 554, 1168, 561, 181, 242, 309, 289, 270, 230, 286, 285]</t>
   </si>
   <si>
     <t>TEST</t>
   </si>
   <si>
-    <t>0.7727272727272727</t>
+    <t>0.7709090909090909</t>
+  </si>
+  <si>
+    <t>0.78</t>
+  </si>
+  <si>
+    <t>0.050980392156862744</t>
+  </si>
+  <si>
+    <t>[517, 1101, 504, 1083, 315, 232, 1084, 182, 1308, 601, 1081, 1119, 1182, 1096, 227, 233, 1157, 1291, 1211, 229, 1140, 1116, 1224, 1290, 1079, 204, 250, 503, 520, 495, 580, 1289, 1073, 1164, 521, 221, 1117, 522, 1127, 1143, 1207, 224, 1219, 551, 295, 1300, 1095, 236, 1216, 606, 529, 252, 545, 1085, 555, 1231, 1139, 201, 1125, 552, 1303, 1133, 313, 1173, 1171, 543, 550, 1215, 559, 180, 1152, 1128, 1155, 297, 1304, 514, 1142, 512, 207, 210, 581, 1194, 532, 1227, 249, 192, 511, 280, 1235, 1234, 311, 1106, 1144, 1154, 296, 282, 300, 1218, 1075, 268, 1186, 1126, 1181, 259, 1223, 1191, 191, 1141, 1172, 1233, 1189, 238, 1102, 277, 1082, 1206, 1297, 548, 516, 605, 183, 273, 518, 598, 1197, 1156, 506, 604, 244, 189, 567, 496, 1184, 1221, 228, 1135, 1302, 574, 502, 274, 563, 1180, 1314, 272, 194, 493, 1179, 225, 1161, 1204, 262, 508, 1177, 1108, 494, 608, 254, 1315, 318, 1136, 530, 1193, 1292, 291, 220, 1092, 607, 267, 1174, 1158, 1226, 298, 304, 1285, 314, 1169, 597, 1121, 223, 1163, 1088, 1202, 528, 253, 570, 185, 541, 568, 1077, 569, 1114, 1103, 1098, 576, 188, 1296, 1132, 258, 1120, 1287, 176, 186, 251, 1148, 1188, 1309, 1199, 1137, 275, 269, 1293, 1167, 308, 498, 1162, 284, 1159, 540, 231, 497, 1183, 1091, 1118, 316, 523, 1222, 515, 510, 226, 303, 600, 216, 1228, 539, 546, 1076, 247, 1217, 1153, 1196, 1212, 1192]</t>
   </si>
   <si>
     <t>BNN</t>
@@ -68,24 +83,6 @@
   </si>
   <si>
     <t># AVERAGE THRESHOLDS PER USED NEURON:</t>
-  </si>
-  <si>
-    <t># CONDITIONS PER LAYER, STARTING WITH SHALLOWER:</t>
-  </si>
-  <si>
-    <t>[2, 1, 1, 1, 1, 1]</t>
-  </si>
-  <si>
-    <t>AVERAGE TRAIN FIDELITY PER LAYER, STARTING WITH SHALLOWER:</t>
-  </si>
-  <si>
-    <t>[0.9863760217983651, 0.9990917347865577, 0.9881925522252498, 1.0, 1.0, 1.0]</t>
-  </si>
-  <si>
-    <t>AVERAGE TEST FIDELITY PER LAYER, STARTING WITH SHALLOWER:</t>
-  </si>
-  <si>
-    <t>[0.9904545454545455, 1.0, 0.990909090909091, 1.0, 1.0, 1.0]</t>
   </si>
 </sst>
 </file>
@@ -426,7 +423,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -466,7 +463,7 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -477,7 +474,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -488,7 +485,7 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -496,10 +493,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -507,10 +504,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -518,20 +515,20 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B14">
         <v>6</v>
@@ -563,34 +560,10 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
